--- a/dates1.xlsx
+++ b/dates1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\P9778\Прикладной статистический анализ\Lab1\Lab1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Makar\Desktop\Прикладной статистический анализ (ПСА)\ЛР №1\LR1\LR1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF4EEDC-C3C0-411B-A132-83FBF8D77133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC1EA33-582D-4B83-B26A-C7161C013B46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="600" windowWidth="10230" windowHeight="10920" xr2:uid="{BD952687-5001-4006-9229-1798C80EBCD6}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{BD952687-5001-4006-9229-1798C80EBCD6}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -542,15 +542,15 @@
   <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+      <selection activeCell="I44" sqref="F34:I44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>48</v>
       </c>
@@ -558,7 +558,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -566,7 +566,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -574,7 +574,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -582,7 +582,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -590,7 +590,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -598,7 +598,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -606,7 +606,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -614,7 +614,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -622,7 +622,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -630,7 +630,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -638,7 +638,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -646,7 +646,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -654,7 +654,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -662,7 +662,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -670,7 +670,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -678,7 +678,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -686,7 +686,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -694,7 +694,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -702,7 +702,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -710,7 +710,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -718,7 +718,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -726,7 +726,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -734,7 +734,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -742,7 +742,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -750,7 +750,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -758,7 +758,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -766,7 +766,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -774,7 +774,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -782,7 +782,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -790,7 +790,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -798,7 +798,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
@@ -806,7 +806,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
@@ -814,7 +814,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
@@ -822,7 +822,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
@@ -830,7 +830,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
@@ -838,7 +838,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
@@ -846,7 +846,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
@@ -854,7 +854,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
@@ -862,7 +862,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
@@ -870,7 +870,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
@@ -878,7 +878,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
@@ -886,7 +886,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>41</v>
       </c>
@@ -894,7 +894,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>42</v>
       </c>
@@ -902,7 +902,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>43</v>
       </c>
@@ -910,7 +910,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>44</v>
       </c>
@@ -918,7 +918,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>45</v>
       </c>
@@ -926,7 +926,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>46</v>
       </c>
@@ -934,7 +934,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>47</v>
       </c>

--- a/dates1.xlsx
+++ b/dates1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Makar\Desktop\Прикладной статистический анализ (ПСА)\ЛР №1\LR1\LR1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC1EA33-582D-4B83-B26A-C7161C013B46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BC54915-D676-4019-9DE4-B98A970DD8A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{BD952687-5001-4006-9229-1798C80EBCD6}"/>
+    <workbookView xWindow="1848" yWindow="1848" windowWidth="17280" windowHeight="8964" xr2:uid="{BD952687-5001-4006-9229-1798C80EBCD6}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="64">
   <si>
     <t>2022-08-01'</t>
   </si>
@@ -186,6 +186,48 @@
   </si>
   <si>
     <t>Pressure</t>
+  </si>
+  <si>
+    <t>5.1</t>
+  </si>
+  <si>
+    <t>4.9</t>
+  </si>
+  <si>
+    <t>4.7</t>
+  </si>
+  <si>
+    <t>4.6</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>5.4</t>
+  </si>
+  <si>
+    <t>4.4</t>
+  </si>
+  <si>
+    <t>4.8</t>
+  </si>
+  <si>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t>5.8</t>
+  </si>
+  <si>
+    <t>5.7</t>
+  </si>
+  <si>
+    <t>5.2</t>
+  </si>
+  <si>
+    <t>5.5</t>
+  </si>
+  <si>
+    <t>4.5</t>
   </si>
 </sst>
 </file>
@@ -222,9 +264,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -541,8 +584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{326C94F6-D704-45DA-85E4-22DAEA91DBD0}">
   <dimension ref="A1:B49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="I44" sqref="F34:I44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -562,384 +605,384 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>750</v>
+      <c r="B2" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>749</v>
+      <c r="B3" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>750</v>
+      <c r="B4" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>752</v>
+      <c r="B5" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>753</v>
+      <c r="B6" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>752</v>
+      <c r="B7" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>751</v>
+      <c r="B8" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>754</v>
+      <c r="B9" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>753</v>
+      <c r="B10" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>754</v>
+      <c r="B11" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>755</v>
+      <c r="B12" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>755</v>
+      <c r="B13" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B14">
-        <v>753</v>
+      <c r="B14" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B15">
-        <v>752</v>
+      <c r="B15" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B16">
-        <v>753</v>
+      <c r="B16" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B17">
-        <v>753</v>
+      <c r="B17" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B18">
-        <v>751</v>
+      <c r="B18" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B19">
-        <v>752</v>
+      <c r="B19" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B20">
-        <v>755</v>
+      <c r="B20" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B21">
-        <v>757</v>
+      <c r="B21" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B22">
-        <v>755</v>
+      <c r="B22" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B23">
-        <v>755</v>
+      <c r="B23" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B24">
-        <v>757</v>
+      <c r="B24" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B25">
-        <v>758</v>
+      <c r="B25" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B26">
-        <v>755</v>
+      <c r="B26" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B27">
-        <v>753</v>
+      <c r="B27" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B28">
-        <v>753</v>
+      <c r="B28" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B29">
-        <v>749</v>
+      <c r="B29" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B30">
-        <v>745</v>
+      <c r="B30" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B31">
-        <v>743</v>
+      <c r="B31" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B32">
-        <v>743</v>
+      <c r="B32" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B33">
-        <v>744</v>
+      <c r="B33" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B34">
-        <v>749</v>
+      <c r="B34" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B35">
-        <v>754</v>
+      <c r="B35" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B36">
-        <v>752</v>
+      <c r="B36" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B37">
-        <v>751</v>
+      <c r="B37" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B38">
-        <v>750</v>
+      <c r="B38" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B39">
-        <v>746</v>
+      <c r="B39" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B40">
-        <v>750</v>
+      <c r="B40" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B41">
-        <v>757</v>
+      <c r="B41" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B42">
-        <v>757</v>
+      <c r="B42" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B43">
-        <v>752</v>
+      <c r="B43" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B44">
-        <v>750</v>
+      <c r="B44" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B45">
-        <v>747</v>
+      <c r="B45" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B46">
-        <v>740</v>
+      <c r="B46" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B47">
-        <v>738</v>
+      <c r="B47" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B48">
-        <v>735</v>
+      <c r="B48" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B49">
-        <v>738</v>
+      <c r="B49" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/dates1.xlsx
+++ b/dates1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Makar\Desktop\Прикладной статистический анализ (ПСА)\ЛР №1\LR1\LR1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BC54915-D676-4019-9DE4-B98A970DD8A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD2B13C0-DBD4-42AB-9655-87BD5104D767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1848" yWindow="1848" windowWidth="17280" windowHeight="8964" xr2:uid="{BD952687-5001-4006-9229-1798C80EBCD6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="78">
   <si>
     <t>2022-08-01'</t>
   </si>
@@ -188,46 +188,88 @@
     <t>Pressure</t>
   </si>
   <si>
-    <t>5.1</t>
-  </si>
-  <si>
-    <t>4.9</t>
-  </si>
-  <si>
-    <t>4.7</t>
-  </si>
-  <si>
-    <t>4.6</t>
-  </si>
-  <si>
-    <t>5.0</t>
-  </si>
-  <si>
-    <t>5.4</t>
-  </si>
-  <si>
-    <t>4.4</t>
-  </si>
-  <si>
-    <t>4.8</t>
-  </si>
-  <si>
-    <t>4.3</t>
-  </si>
-  <si>
-    <t>5.8</t>
-  </si>
-  <si>
-    <t>5.7</t>
-  </si>
-  <si>
-    <t>5.2</t>
-  </si>
-  <si>
-    <t>5.5</t>
-  </si>
-  <si>
-    <t>4.5</t>
+    <t>110</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>97</t>
   </si>
 </sst>
 </file>
@@ -585,7 +627,7 @@
   <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -606,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -614,7 +656,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -622,7 +664,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -630,7 +672,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -638,7 +680,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -646,7 +688,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -654,7 +696,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -662,7 +704,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -670,7 +712,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -678,7 +720,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -686,7 +728,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -694,7 +736,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -702,7 +744,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -710,7 +752,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -718,7 +760,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -726,7 +768,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -734,7 +776,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -742,7 +784,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -750,7 +792,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -758,7 +800,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -766,7 +808,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -774,7 +816,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -782,7 +824,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -790,7 +832,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -798,7 +840,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -806,7 +848,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -814,7 +856,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -822,7 +864,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -830,7 +872,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -838,7 +880,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -846,7 +888,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -854,7 +896,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -862,7 +904,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -870,7 +912,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -878,7 +920,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -886,7 +928,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -894,7 +936,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -902,7 +944,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -910,7 +952,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -918,7 +960,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -926,7 +968,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -934,7 +976,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -942,7 +984,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -950,7 +992,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -958,7 +1000,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -966,7 +1008,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -974,7 +1016,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -982,7 +1024,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
